--- a/data/trans_dic/P43C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Habitat-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4344850707626621</v>
+        <v>0.4327222173461913</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5835616583182545</v>
+        <v>0.5862961103117943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5193898907671484</v>
+        <v>0.5163754276434599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4864084309285479</v>
+        <v>0.4851002862013362</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.506908787612378</v>
+        <v>0.5085489933845295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6617918437247773</v>
+        <v>0.6656534675545074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5948426567195708</v>
+        <v>0.5942827489954065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5633046295630993</v>
+        <v>0.5553388544387736</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.6515011978663791</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5207256036169668</v>
+        <v>0.5207256036169666</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.485642080279817</v>
+        <v>0.4843867725261488</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6145756139425671</v>
+        <v>0.6140740278251272</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6222312510523198</v>
+        <v>0.6210534301906345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.486738483448688</v>
+        <v>0.4884672993702677</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5493717668608471</v>
+        <v>0.5505985787839625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6782196295808898</v>
+        <v>0.6768971206540529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6810843644745525</v>
+        <v>0.6800231007088682</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5508348461559245</v>
+        <v>0.5511869300782043</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5291840184525164</v>
+        <v>0.5269906630053444</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6646705131380782</v>
+        <v>0.6674224200235704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6122308507972142</v>
+        <v>0.6120718576747386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6139127654901281</v>
+        <v>0.6156866027964659</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6028639677951002</v>
+        <v>0.6029531539813541</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7370293990015374</v>
+        <v>0.7378080157670202</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6845275791873991</v>
+        <v>0.681422116439412</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.692449493400432</v>
+        <v>0.696308115437703</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.6731811636598362</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6244707790638863</v>
+        <v>0.6244707790638864</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5551091340819241</v>
+        <v>0.5547811690321827</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6030884816208519</v>
+        <v>0.6059011365602581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6403020938396169</v>
+        <v>0.642740097059645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5939026432222995</v>
+        <v>0.5940378089342206</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6126558432940422</v>
+        <v>0.6155142096943753</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.66240010205916</v>
+        <v>0.6670178716011509</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7013752829281406</v>
+        <v>0.7028257713490729</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6535707851159936</v>
+        <v>0.6546174711834981</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.6394171953292009</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5793751845427149</v>
+        <v>0.5793751845427151</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5202205148780882</v>
+        <v>0.5185389829580822</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6333750864083513</v>
+        <v>0.6339079466856339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6239200703340392</v>
+        <v>0.623462457887602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5619294092235907</v>
+        <v>0.5618397888916334</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5548732931486725</v>
+        <v>0.5542279318459997</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6664989728235774</v>
+        <v>0.667523406241641</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6556910068448542</v>
+        <v>0.6568374336463259</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5960486258011589</v>
+        <v>0.5968302605884683</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>293094</v>
+        <v>291905</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>402623</v>
+        <v>404509</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>345663</v>
+        <v>343657</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>266861</v>
+        <v>266143</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>341950</v>
+        <v>343056</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>456597</v>
+        <v>459261</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>395878</v>
+        <v>395505</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>309049</v>
+        <v>304678</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>464466</v>
+        <v>463266</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>629821</v>
+        <v>629307</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>638781</v>
+        <v>637572</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>395951</v>
+        <v>397357</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>525417</v>
+        <v>526590</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>695044</v>
+        <v>693688</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>699199</v>
+        <v>698110</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>448092</v>
+        <v>448378</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>356819</v>
+        <v>355340</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>510360</v>
+        <v>512473</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>478032</v>
+        <v>477908</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>347386</v>
+        <v>348389</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>406500</v>
+        <v>406560</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>565920</v>
+        <v>566518</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>534482</v>
+        <v>532057</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>391826</v>
+        <v>394009</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>567207</v>
+        <v>566872</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>627073</v>
+        <v>629997</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>661914</v>
+        <v>664435</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>505954</v>
+        <v>506069</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>626008</v>
+        <v>628929</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>688743</v>
+        <v>693545</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>725049</v>
+        <v>726548</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>556786</v>
+        <v>557678</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1730800</v>
+        <v>1725205</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2230971</v>
+        <v>2232848</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2187883</v>
+        <v>2186278</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1562097</v>
+        <v>1561848</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1846091</v>
+        <v>1843944</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2347645</v>
+        <v>2351253</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2299293</v>
+        <v>2303313</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1656945</v>
+        <v>1659118</v>
       </c>
     </row>
     <row r="24">
